--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -747,148 +747,148 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP2" t="n">
         <v>19</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="AQ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
         <v>29</v>
       </c>
-      <c r="AN2" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>22</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -925,115 +925,149 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.54</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.22</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
         <v>12</v>
       </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
         <v>101</v>
       </c>
-      <c r="AH3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+      <c r="BB3" t="n">
+        <v>251</v>
+      </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1069,46 +1103,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.57</v>
@@ -1126,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1150,16 +1184,16 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>19</v>
@@ -1168,10 +1202,10 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1186,7 +1220,7 @@
         <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1247,13 +1281,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1265,10 +1299,10 @@
         <v>2.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1277,10 +1311,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1289,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>12</v>
@@ -1325,13 +1359,13 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.5</v>
@@ -1346,7 +1380,7 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
         <v>21</v>
@@ -1358,7 +1392,7 @@
         <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
@@ -1376,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
@@ -1620,52 +1654,52 @@
         <v>1.93</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.47</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>80</v>
@@ -1674,47 +1708,49 @@
         <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>120</v>
       </c>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
       <c r="AH7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ7" t="n">
         <v>150</v>
@@ -1723,34 +1759,34 @@
         <v>200</v>
       </c>
       <c r="AS7" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
         <v>3.65</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1787,79 +1823,79 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.87</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
         <v>1.42</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W8" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF8" t="n">
         <v>90</v>
@@ -1868,67 +1904,67 @@
         <v>800</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AI8" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AR8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV8" t="n">
         <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AX8" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -1965,19 +2001,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
         <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>4.8</v>
@@ -1986,7 +2022,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.39</v>
@@ -2004,7 +2040,7 @@
         <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
@@ -2013,16 +2049,16 @@
         <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2031,7 +2067,7 @@
         <v>37</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2046,10 +2082,10 @@
         <v>1250</v>
       </c>
       <c r="AH9" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>16.5</v>
@@ -2064,7 +2100,7 @@
         <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO9" t="n">
         <v>8.75</v>
@@ -2073,7 +2109,7 @@
         <v>19.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR9" t="n">
         <v>70</v>
@@ -2082,7 +2118,7 @@
         <v>300</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU9" t="n">
         <v>7.8</v>
@@ -2091,13 +2127,13 @@
         <v>80</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AX9" t="n">
         <v>26</v>
       </c>
       <c r="AY9" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ9" t="n">
         <v>150</v>
@@ -2106,7 +2142,7 @@
         <v>200</v>
       </c>
       <c r="BB9" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2143,22 +2179,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2167,16 +2203,16 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2194,13 +2230,13 @@
         <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2212,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2221,37 +2257,37 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2269,16 +2305,16 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
@@ -2343,10 +2379,10 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
@@ -2507,10 +2543,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
         <v>2.8</v>
@@ -2519,43 +2555,43 @@
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W12" t="n">
         <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -2567,28 +2603,28 @@
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2600,10 +2636,10 @@
         <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
         <v>4.5</v>
@@ -2612,40 +2648,40 @@
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
@@ -2688,54 +2724,150 @@
           <t>Daegu</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>201</v>
+      </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -762,13 +762,13 @@
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -789,22 +789,22 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -834,22 +834,22 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
         <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -879,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
@@ -888,7 +888,7 @@
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -937,7 +937,7 @@
         <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
@@ -949,16 +949,16 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1018,13 +1018,13 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
         <v>3.1</v>
@@ -1127,16 +1127,16 @@
         <v>8.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>1.34</v>
@@ -1145,10 +1145,10 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
         <v>11</v>
@@ -1181,7 +1181,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1290,10 +1290,10 @@
         <v>1.91</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
         <v>2.6</v>
@@ -1305,22 +1305,22 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1329,13 +1329,13 @@
         <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
         <v>41</v>
@@ -1347,7 +1347,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1362,7 +1362,7 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1377,28 +1377,28 @@
         <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
         <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
@@ -1645,148 +1645,148 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1823,148 +1823,148 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2001,148 +2001,148 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>1250</v>
       </c>
       <c r="AH9" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
         <v>26</v>
       </c>
       <c r="AY9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2179,13 +2179,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2197,28 +2197,28 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2245,7 +2245,7 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
@@ -2263,10 +2263,10 @@
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2278,7 +2278,7 @@
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -2296,7 +2296,7 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2308,19 +2308,19 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2546,7 +2546,7 @@
         <v>2.35</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>2.8</v>
@@ -2555,10 +2555,10 @@
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2573,25 +2573,25 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -2606,10 +2606,10 @@
         <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2636,10 +2636,10 @@
         <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
         <v>4.5</v>
@@ -2648,22 +2648,22 @@
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2675,7 +2675,7 @@
         <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
@@ -2725,13 +2725,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2740,7 +2740,7 @@
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2749,16 +2749,16 @@
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2767,28 +2767,28 @@
         <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2803,7 +2803,7 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2812,10 +2812,10 @@
         <v>10</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
@@ -2851,10 +2851,10 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -789,19 +789,19 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,13 +828,13 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -849,10 +849,10 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>34</v>
@@ -861,7 +861,7 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
@@ -873,10 +873,10 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>26</v>
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.3</v>
@@ -943,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
@@ -1018,13 +1018,13 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -1124,25 +1124,25 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.55</v>
@@ -1281,124 +1281,124 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
       </c>
       <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
         <v>21</v>
       </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>17</v>
       </c>
-      <c r="AL5" t="n">
-        <v>15</v>
-      </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
         <v>81</v>
       </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1407,16 +1407,16 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
         <v>51</v>
@@ -1823,19 +1823,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
         <v>2.5</v>
@@ -1853,16 +1853,16 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1871,10 +1871,10 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
@@ -1928,19 +1928,19 @@
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
         <v>34</v>
@@ -1964,7 +1964,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2179,46 +2179,46 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -2227,19 +2227,19 @@
         <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -2248,10 +2248,10 @@
         <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2260,34 +2260,34 @@
         <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
         <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
       </c>
       <c r="AN10" t="n">
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2296,31 +2296,31 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2391,10 +2391,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2502,7 +2502,7 @@
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2731,10 +2731,10 @@
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
@@ -2749,16 +2749,16 @@
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2767,10 +2767,10 @@
         <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
         <v>8.5</v>
@@ -2803,7 +2803,7 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -753,7 +753,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
@@ -762,7 +762,7 @@
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -774,7 +774,7 @@
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
@@ -789,13 +789,13 @@
         <v>3.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -822,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>126</v>
@@ -837,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>19</v>
@@ -846,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -864,10 +864,10 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>41</v>
@@ -896,7 +896,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C81gKcbc</t>
+          <t>lleFOanB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -906,179 +906,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.75</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.88</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
         <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BC3" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lleFOanB</t>
+          <t>vyTPDrYh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1098,85 +1098,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.75</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
         <v>10</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1188,16 +1188,16 @@
         <v>600</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
@@ -1209,13 +1209,13 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1224,7 +1224,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1236,19 +1236,19 @@
         <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1307,10 +1307,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1319,10 +1319,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -943,10 +943,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -1009,7 +1009,7 @@
         <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -1018,13 +1018,13 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -1036,7 +1036,7 @@
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1051,7 +1051,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>19</v>
@@ -1137,10 +1137,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>xjgVeHTp</t>
+          <t>Gzc7QLHb</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,143 +1270,143 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Asan</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>67</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1415,25 +1415,207 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
       </c>
       <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>xjgVeHTp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Asan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
         <v>201</v>
       </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -943,10 +943,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -955,10 +955,10 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1289,22 +1289,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1313,49 +1313,49 @@
         <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1385,7 +1385,7 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>4.5</v>
@@ -1394,22 +1394,22 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1421,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1471,28 +1471,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1519,16 +1519,16 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1552,34 +1552,34 @@
         <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
       <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
         <v>21</v>
       </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>81</v>
@@ -1600,13 +1600,13 @@
         <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UBEjNpvp</t>
+          <t>EouYkCd3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,134 +728,134 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kerala Blasters</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
         <v>12</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
         <v>34</v>
       </c>
-      <c r="AG2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
         <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,31 +864,31 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -896,7 +896,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lleFOanB</t>
+          <t>UBEjNpvp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -906,179 +906,175 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Kerala Blasters</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.33</v>
       </c>
-      <c r="P3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
         <v>10</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>600</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
         <v>51</v>
       </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
       <c r="BB3" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>81</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vyTPDrYh</t>
+          <t>lleFOanB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,7 +1084,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1098,85 +1094,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1188,43 +1184,43 @@
         <v>600</v>
       </c>
       <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>12</v>
       </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1233,22 +1229,22 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1260,7 +1256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gzc7QLHb</t>
+          <t>vyTPDrYh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,7 +1266,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1280,31 +1276,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1313,91 +1309,91 @@
         <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.85</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
         <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1406,31 +1402,31 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1442,7 +1438,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xjgVeHTp</t>
+          <t>Gzc7QLHb</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,158 +1448,158 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Asan</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>8.5</v>
       </c>
       <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.36</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>1.67</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1612,10 +1608,192 @@
         <v>67</v>
       </c>
       <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>xjgVeHTp</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Asan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
         <v>201</v>
       </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -810,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -1426,7 +1426,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1649,40 +1649,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1691,10 +1691,10 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
         <v>8</v>
@@ -1703,13 +1703,13 @@
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
@@ -1721,25 +1721,25 @@
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1754,7 +1754,7 @@
         <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1775,7 +1775,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
@@ -1787,7 +1787,7 @@
         <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,16 +771,16 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -789,28 +789,28 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
         <v>17</v>
       </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -819,34 +819,34 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -855,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -876,16 +876,16 @@
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
         <v>67</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
@@ -925,34 +925,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q3" t="n">
         <v>1.67</v>
@@ -961,10 +961,10 @@
         <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>1.53</v>
@@ -973,7 +973,7 @@
         <v>2.32</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -991,7 +991,7 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1000,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>126</v>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>19</v>
@@ -1024,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1042,10 +1042,10 @@
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
@@ -1057,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
@@ -1074,7 +1074,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lleFOanB</t>
+          <t>lpsIG3It</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,179 +1084,175 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY4" t="n">
         <v>23</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AZ4" t="n">
         <v>41</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="BA4" t="n">
         <v>67</v>
       </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
       <c r="BB4" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vyTPDrYh</t>
+          <t>dApQEsmg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,92 +1262,92 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
         <v>2.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.95</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1363,46 +1359,46 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1411,34 +1407,30 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gzc7QLHb</t>
+          <t>lleFOanB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,7 +1440,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1458,67 +1450,67 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.25</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1530,64 +1522,64 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>700</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1596,19 +1588,19 @@
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1620,7 +1612,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xjgVeHTp</t>
+          <t>vyTPDrYh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,95 +1622,95 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Asan</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.4</v>
       </c>
-      <c r="P7" t="n">
+      <c r="T7" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
         <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
         <v>10</v>
       </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1727,46 +1719,46 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1775,25 +1767,389 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gzc7QLHb</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>xjgVeHTp</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Asan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -747,94 +747,94 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>3.6</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.75</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
         <v>19</v>
       </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -843,49 +843,49 @@
         <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
@@ -955,10 +955,10 @@
         <v>3.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>1.34</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1468,13 +1468,13 @@
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1483,10 +1483,10 @@
         <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
@@ -1510,22 +1510,22 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
         <v>10</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1641,13 +1641,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1656,7 +1656,7 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1665,16 +1665,16 @@
         <v>8.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1683,22 +1683,22 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1719,13 +1719,13 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>13</v>
@@ -1734,10 +1734,10 @@
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>4</v>
@@ -1767,7 +1767,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
         <v>21</v>
@@ -1779,7 +1779,7 @@
         <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>350</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -2020,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2035,10 +2035,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2056,7 +2056,7 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -2089,13 +2089,13 @@
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>10</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -762,40 +762,40 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.8</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
         <v>9.5</v>
@@ -834,13 +834,13 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -888,7 +888,7 @@
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -955,10 +955,10 @@
         <v>3.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
         <v>1.34</v>
@@ -1281,13 +1281,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1299,10 +1299,10 @@
         <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1323,16 +1323,16 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
@@ -1341,16 +1341,16 @@
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1362,16 +1362,16 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
@@ -1489,10 +1489,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1641,13 +1641,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1659,10 +1659,10 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1671,10 +1671,10 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1689,10 +1689,10 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1704,16 +1704,16 @@
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
@@ -1740,7 +1740,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
         <v>10</v>
@@ -1761,7 +1761,7 @@
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1770,13 +1770,13 @@
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
@@ -1823,13 +1823,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1841,10 +1841,10 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1853,10 +1853,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1880,7 +1880,7 @@
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1919,7 +1919,7 @@
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
         <v>4.5</v>
@@ -1952,10 +1952,10 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -1972,184 +1972,6 @@
       <c r="BD8" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>xjgVeHTp</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Asan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Daegu</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,58 +747,58 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X2" t="n">
         <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -807,28 +807,28 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -840,19 +840,19 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -861,34 +861,34 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -896,7 +896,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UBEjNpvp</t>
+          <t>ADYtljRF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -906,167 +906,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kerala Blasters</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>11</v>
       </c>
-      <c r="X3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
         <v>10</v>
       </c>
-      <c r="Z3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>19</v>
       </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
         <v>13</v>
       </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>19</v>
-      </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY3" t="n">
         <v>41</v>
       </c>
-      <c r="AW3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1074,7 +1074,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lpsIG3It</t>
+          <t>UBEjNpvp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,167 +1084,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Kerala Blasters</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
         <v>4.75</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AQ4" t="n">
         <v>41</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>41</v>
       </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1252,7 +1252,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dApQEsmg</t>
+          <t>lpsIG3It</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1272,157 +1272,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
         <v>67</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1430,7 +1430,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lleFOanB</t>
+          <t>dApQEsmg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1440,95 +1440,95 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1537,82 +1537,78 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>700</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>15</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
       <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
         <v>26</v>
       </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA6" t="n">
         <v>51</v>
       </c>
-      <c r="BA6" t="n">
-        <v>81</v>
-      </c>
       <c r="BB6" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vyTPDrYh</t>
+          <t>IPYYCLH5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1622,32 +1618,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1656,43 +1652,43 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
         <v>2</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1701,25 +1697,25 @@
         <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
@@ -1731,10 +1727,10 @@
         <v>15</v>
       </c>
       <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
         <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1746,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
@@ -1755,46 +1751,42 @@
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gzc7QLHb</t>
+          <t>lleFOanB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1804,7 +1796,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1814,121 +1806,121 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>900</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
       </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1940,36 +1932,400 @@
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
       </c>
       <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>vyTPDrYh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Al Kholood</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gzc7QLHb</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -789,25 +789,25 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -831,13 +831,13 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -876,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
@@ -925,64 +925,64 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -991,76 +991,76 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="n">
         <v>51</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR3" t="n">
         <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -1124,13 +1124,13 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
@@ -1139,16 +1139,16 @@
         <v>2.15</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V4" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W4" t="n">
         <v>11</v>
@@ -1169,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1220,10 +1220,10 @@
         <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
@@ -1252,7 +1252,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lpsIG3It</t>
+          <t>x2BD1EaU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1262,175 +1262,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.36</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>1.67</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dApQEsmg</t>
+          <t>lpsIG3It</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1450,157 +1454,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
         <v>67</v>
       </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1608,7 +1612,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IPYYCLH5</t>
+          <t>dApQEsmg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1618,7 +1622,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1628,157 +1632,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>4.33</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.36</v>
       </c>
-      <c r="P7" t="n">
+      <c r="T7" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
         <v>51</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
         <v>10</v>
       </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>34</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BA7" t="n">
         <v>51</v>
       </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>126</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1786,7 +1790,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lleFOanB</t>
+          <t>IPYYCLH5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1796,92 +1800,92 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="Q8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1890,85 +1894,81 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>900</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vyTPDrYh</t>
+          <t>lleFOanB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1988,157 +1988,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11</v>
       </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
       <c r="BB9" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2150,7 +2150,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gzc7QLHb</t>
+          <t>vyTPDrYh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2170,49 +2170,49 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.4</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2221,25 +2221,25 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -2248,49 +2248,49 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>13</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AK10" t="n">
         <v>41</v>
       </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
         <v>10</v>
       </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>13</v>
-      </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
@@ -2299,33 +2299,215 @@
         <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
       </c>
       <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gzc7QLHb</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -967,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -994,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1006,7 +1006,7 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
@@ -1015,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1024,7 +1024,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -1045,16 +1045,16 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1066,7 +1066,7 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1074,7 +1074,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UBEjNpvp</t>
+          <t>x2BD1EaU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,155 +1084,155 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kerala Blasters</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.67</v>
       </c>
-      <c r="R4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.52</v>
-      </c>
       <c r="V4" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
         <v>11</v>
       </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>51</v>
       </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
@@ -1246,13 +1246,17 @@
       <c r="BB4" t="n">
         <v>126</v>
       </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+      <c r="BC4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x2BD1EaU</t>
+          <t>lpsIG3It</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1262,179 +1266,175 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.2</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
         <v>2</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="n">
         <v>23</v>
       </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
       <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY5" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lpsIG3It</t>
+          <t>dApQEsmg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1454,157 +1454,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.36</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
         <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
         <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>34</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR6" t="n">
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
         <v>126</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dApQEsmg</t>
+          <t>IPYYCLH5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1632,157 +1632,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
         <v>51</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AS7" t="n">
         <v>201</v>
       </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
         <v>9</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN7" t="n">
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
         <v>6</v>
       </c>
-      <c r="AO7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>81</v>
       </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
-      </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1790,7 +1790,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IPYYCLH5</t>
+          <t>lleFOanB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1800,143 +1800,143 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.67</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6</v>
       </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1945,30 +1945,34 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lleFOanB</t>
+          <t>vyTPDrYh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1978,7 +1982,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1988,157 +1992,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.63</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
         <v>1.91</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
         <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2150,7 +2154,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vyTPDrYh</t>
+          <t>Gzc7QLHb</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2160,7 +2164,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2170,55 +2174,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.1</v>
       </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -2227,28 +2231,28 @@
         <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2257,46 +2261,46 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>700</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
         <v>13</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>41</v>
       </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2305,209 +2309,27 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Gzc7QLHb</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Al Fateh</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Al Riyadh</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -783,16 +783,16 @@
         <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -879,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -967,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -994,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1006,16 +1006,16 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1024,7 +1024,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -1045,16 +1045,16 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1066,7 +1066,7 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1790,7 +1790,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lleFOanB</t>
+          <t>Gzc7QLHb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1810,100 +1810,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.44</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -1915,34 +1915,34 @@
         <v>26</v>
       </c>
       <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>41</v>
       </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>4.75</v>
@@ -1957,379 +1957,15 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>vyTPDrYh</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>12:05</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Al Okhdood</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Al Kholood</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Gzc7QLHb</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Al Fateh</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Al Riyadh</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD10" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -783,7 +783,7 @@
         <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
@@ -943,10 +943,10 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -982,7 +982,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -1027,7 +1027,7 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
         <v>4.75</v>
@@ -1300,7 +1300,7 @@
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1360,16 +1360,16 @@
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1405,7 +1405,7 @@
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1414,16 +1414,16 @@
         <v>3.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1484,7 +1484,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1511,7 +1511,7 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
@@ -1523,7 +1523,7 @@
         <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1541,7 +1541,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
         <v>7.5</v>
@@ -1662,7 +1662,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1819,28 +1819,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1867,10 +1867,10 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -1903,22 +1903,22 @@
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
@@ -1951,7 +1951,7 @@
         <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
@@ -943,10 +943,10 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -982,7 +982,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -1012,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1027,7 +1027,7 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1787,188 +1787,6 @@
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Gzc7QLHb</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Al Fateh</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Al Riyadh</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -765,22 +765,22 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -925,40 +925,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -967,34 +967,34 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1012,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -1060,7 +1060,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1484,7 +1484,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EouYkCd3</t>
+          <t>ADYtljRF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,55 +738,55 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P2" t="n">
         <v>4</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.91</v>
@@ -795,97 +795,97 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>19</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR2" t="n">
         <v>41</v>
       </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -896,7 +896,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADYtljRF</t>
+          <t>x2BD1EaU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -906,47 +906,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -955,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -967,76 +967,76 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>12</v>
       </c>
       <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
         <v>9</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
         <v>21</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AL3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
         <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1045,36 +1045,40 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>41</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
         <v>126</v>
       </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+      <c r="BC3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x2BD1EaU</t>
+          <t>lpsIG3It</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,179 +1088,175 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
       </c>
       <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
         <v>23</v>
       </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
       <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
         <v>23</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA4" t="n">
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lpsIG3It</t>
+          <t>dApQEsmg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1276,148 +1276,148 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.85</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.36</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
         <v>81</v>
       </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
         <v>34</v>
@@ -1426,7 +1426,7 @@
         <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dApQEsmg</t>
+          <t>IPYYCLH5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1454,338 +1454,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
         <v>9</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN6" t="n">
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
         <v>6</v>
       </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>81</v>
       </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>IPYYCLH5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Libertad Asuncion</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
@@ -768,46 +768,46 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -831,13 +831,13 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>7.5</v>
@@ -855,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -876,16 +876,16 @@
         <v>7.5</v>
       </c>
       <c r="AX2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY2" t="n">
         <v>34</v>
       </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA2" t="n">
         <v>126</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1131,22 +1131,22 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -1155,16 +1155,16 @@
         <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
         <v>41</v>
@@ -1188,34 +1188,34 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
       </c>
       <c r="AK4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="n">
         <v>15</v>
       </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
         <v>126</v>
@@ -1224,19 +1224,19 @@
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
@@ -1285,22 +1285,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1309,121 +1309,121 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM5" t="n">
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AY5" t="n">
         <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
         <v>126</v>
@@ -1484,7 +1484,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -849,7 +849,7 @@
         <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -1078,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lpsIG3It</t>
+          <t>IPYYCLH5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1098,31 +1098,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1131,16 +1131,16 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1155,25 +1155,25 @@
         <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
         <v>17</v>
       </c>
-      <c r="Z4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1182,46 +1182,46 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>126</v>
-      </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1233,381 +1233,25 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>dApQEsmg</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tacuary</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sportivo Trinidense</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>15</v>
-      </c>
-      <c r="X5" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>IPYYCLH5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Libertad Asuncion</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -768,19 +768,19 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -816,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -849,7 +849,7 @@
         <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.6</v>
@@ -1137,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1149,16 +1149,16 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1182,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
@@ -1200,7 +1200,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1209,13 +1209,13 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1227,7 +1227,7 @@
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1245,7 +1245,7 @@
         <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -762,7 +762,7 @@
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,22 +771,22 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -795,7 +795,7 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -804,28 +804,28 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -864,7 +864,7 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -1075,184 +1075,6 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>IPYYCLH5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Libertad Asuncion</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADYtljRF</t>
+          <t>x2BD1EaU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,53 +728,53 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>1.8</v>
@@ -783,295 +783,117 @@
         <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
+        <v>11</v>
+      </c>
+      <c r="X2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>4.33</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="BB2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>x2BD1EaU</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>28/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Atl. San Luis</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>U.A.N.L.- Tigres</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>11</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD3" t="n">
+      <c r="BD2" t="n">
         <v>126</v>
       </c>
     </row>
